--- a/medicine/Bioéthique/John_Britton/John_Britton.xlsx
+++ b/medicine/Bioéthique/John_Britton/John_Britton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Bayard Britton, né le 6 mai 1925 à Boston et mort le 29 juillet 1994 à Pensacola[1], était un médecin américain. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Bayard Britton, né le 6 mai 1925 à Boston et mort le 29 juillet 1994 à Pensacola, était un médecin américain. 
 Il a été assassiné à Pensacola, en Floride, par Paul Jennings Hill, militant anti-avortement.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Boston, John Britton est diplômé en 1949 de l'University of Virginia School of Medicine (en). Il a servi dans l'armée en Corée et a enseigné à Georgia Regents University (en).  
 Il est devenu ensuite un médecin de famille à Fernandina Beach, en Floride, passant beaucoup de son temps à faire des accouchements. 
-Après l'assassinat de David Gunn (en) (son prédécesseur), Britton reçu à son tour des menaces de mort. Il portait sur lui un gilet pare-balles, un .357 Magnum[2] et avait aussi des gardes du corps. 
-Il a décrit les manifestants anti-avortement comme « fanatiques »[3].
+Après l'assassinat de David Gunn (en) (son prédécesseur), Britton reçu à son tour des menaces de mort. Il portait sur lui un gilet pare-balles, un .357 Magnum et avait aussi des gardes du corps. 
+Il a décrit les manifestants anti-avortement comme « fanatiques ».
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Assassinat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 29 juillet 1994, Paul Jennings Hill s'est approché de sa clinique et a tiré sur lui, le touchant à la tête. John Britton était âgé de 69 ans. Paul Jennings Hill a également tué le garde du corps de Britton, un retraité de l'Air Force, le lieutenant-colonel James Barrett (74 ans). La femme de Barrett, une infirmière à la retraite, est de son côté blessée au bras et à la poitrine. 
 Paul Jennings Hill a été condamné à mort le 6 décembre 1994, et exécuté par injection létale le 3 septembre 2003. Il fut la première personne aux États-Unis à être exécutée pour le meurtre d'un médecin pratiquant des avortements.
